--- a/date.xlsx
+++ b/date.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,22 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/date.xlsx
+++ b/date.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,88 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11:11:11</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2022-10-11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
